--- a/srcript/reg_tab/csr_excel/register/asic/pciephy.xlsx
+++ b/srcript/reg_tab/csr_excel/register/asic/pciephy.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FWD_SW\trunk\FWD\sdk\sf_sdk\sdk\tools\srcript\reg_tab\csr_excel\register\asic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19095" windowHeight="7890"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
   <si>
     <t xml:space="preserve">基地址 </t>
   </si>
@@ -888,43 +893,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>phy0内部寄存器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phy1内部寄存器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phy1 regs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x30000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>phy0 regs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>phy0内部寄存器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phy1内部寄存器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phy1 regs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x20000-0x2ffff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x30000-0x3ffff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参见phy datasheet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:0</t>
+    <t>phy0_regs_rev</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phy1_regs_rev</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,13 +1070,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,7 +1141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,7 +1176,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1381,11 +1390,11 @@
   </sheetPr>
   <dimension ref="A2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="43.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
@@ -1399,7 +1408,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1422,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
@@ -1466,10 +1475,10 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="12"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="13"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1479,17 +1488,17 @@
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1501,15 +1510,15 @@
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="12"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1519,17 +1528,17 @@
       <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1541,15 +1550,15 @@
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="12"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1559,17 +1568,17 @@
       <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1581,15 +1590,15 @@
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A11" s="12"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1599,17 +1608,17 @@
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1621,15 +1630,15 @@
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:9" ht="20.25" customHeight="1" outlineLevel="1">
+      <c r="A13" s="12"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1639,10 +1648,10 @@
       <c r="F13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="21" customHeight="1" outlineLevel="1">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" outlineLevel="1">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
@@ -1696,14 +1705,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A16" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1715,15 +1724,15 @@
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A17" s="13"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2" t="s">
         <v>66</v>
       </c>
@@ -1733,13 +1742,13 @@
       <c r="F17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A18" s="13"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2" t="s">
         <v>67</v>
       </c>
@@ -1749,13 +1758,13 @@
       <c r="F18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A19" s="13"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="2" t="s">
         <v>68</v>
       </c>
@@ -1765,13 +1774,13 @@
       <c r="F19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A20" s="13"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2" t="s">
         <v>69</v>
       </c>
@@ -1781,13 +1790,13 @@
       <c r="F20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A21" s="13"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1797,13 +1806,13 @@
       <c r="F21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A22" s="13"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="2" t="s">
         <v>64</v>
       </c>
@@ -1813,13 +1822,13 @@
       <c r="F22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A23" s="13"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="2" t="s">
         <v>63</v>
       </c>
@@ -1829,13 +1838,13 @@
       <c r="F23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A24" s="13"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="2" t="s">
         <v>62</v>
       </c>
@@ -1845,17 +1854,17 @@
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A25" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1867,15 +1876,15 @@
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A26" s="13"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="2" t="s">
         <v>81</v>
       </c>
@@ -1885,13 +1894,13 @@
       <c r="F26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A27" s="13"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="2" t="s">
         <v>82</v>
       </c>
@@ -1901,13 +1910,13 @@
       <c r="F27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A28" s="13"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
@@ -1917,13 +1926,13 @@
       <c r="F28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A29" s="13"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="2" t="s">
         <v>84</v>
       </c>
@@ -1933,13 +1942,13 @@
       <c r="F29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A30" s="13"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2" t="s">
         <v>85</v>
       </c>
@@ -1949,13 +1958,13 @@
       <c r="F30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A31" s="13"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="2" t="s">
         <v>86</v>
       </c>
@@ -1965,13 +1974,13 @@
       <c r="F31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A32" s="13"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="2" t="s">
         <v>87</v>
       </c>
@@ -1981,13 +1990,13 @@
       <c r="F32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A33" s="13"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="2" t="s">
         <v>80</v>
       </c>
@@ -1997,17 +2006,17 @@
       <c r="F33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="12"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A34" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -2019,15 +2028,15 @@
       <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A35" s="13"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="2" t="s">
         <v>91</v>
       </c>
@@ -2037,13 +2046,13 @@
       <c r="F35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A36" s="13"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="12"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="2" t="s">
         <v>92</v>
       </c>
@@ -2053,13 +2062,13 @@
       <c r="F36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="13"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A37" s="13"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="2" t="s">
         <v>93</v>
       </c>
@@ -2069,13 +2078,13 @@
       <c r="F37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A38" s="13"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
@@ -2085,13 +2094,13 @@
       <c r="F38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A39" s="13"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="2" t="s">
         <v>95</v>
       </c>
@@ -2101,13 +2110,13 @@
       <c r="F39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="13"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A40" s="13"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="12"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
         <v>96</v>
       </c>
@@ -2117,13 +2126,13 @@
       <c r="F40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="13"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A41" s="13"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="12"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="2" t="s">
         <v>97</v>
       </c>
@@ -2133,13 +2142,13 @@
       <c r="F41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A42" s="13"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="12"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="2" t="s">
         <v>90</v>
       </c>
@@ -2149,17 +2158,17 @@
       <c r="F42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="12"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -2171,15 +2180,15 @@
       <c r="F43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="11" t="s">
         <v>102</v>
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
+    <row r="44" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A44" s="13"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="12"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="2" t="s">
         <v>100</v>
       </c>
@@ -2189,13 +2198,13 @@
       <c r="F44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="12"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A45" s="13"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="12"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="2" t="s">
         <v>101</v>
       </c>
@@ -2205,13 +2214,13 @@
       <c r="F45" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="12"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
+    <row r="46" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A46" s="13"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="12"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="2" t="s">
         <v>99</v>
       </c>
@@ -2221,13 +2230,13 @@
       <c r="F46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="12"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+      <c r="A47" s="13"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="12"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="4" t="s">
         <v>98</v>
       </c>
@@ -2237,24 +2246,24 @@
       <c r="F47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="12"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A48" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>14</v>
@@ -2264,21 +2273,21 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A49" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
@@ -2290,6 +2299,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="G16:G24"/>
     <mergeCell ref="C16:C24"/>
@@ -2302,17 +2322,6 @@
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C42"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="G12:G13"/>
